--- a/growmat.xlsx
+++ b/growmat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28620" windowHeight="14460"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24120" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="price list" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>outputs</t>
   </si>
@@ -63,9 +63,6 @@
     <t>rtc</t>
   </si>
   <si>
-    <t>display</t>
-  </si>
-  <si>
     <t>relay</t>
   </si>
   <si>
@@ -253,6 +250,12 @@
   </si>
   <si>
     <t>HC SR501</t>
+  </si>
+  <si>
+    <t>display 3,5"</t>
+  </si>
+  <si>
+    <t>display 7"</t>
   </si>
 </sst>
 </file>
@@ -951,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -969,21 +972,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1001,7 +1004,7 @@
         <v>1039</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1019,12 +1022,12 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1037,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1085,12 +1088,12 @@
         <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1103,12 +1106,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1121,12 +1124,12 @@
         <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1139,13 +1142,22 @@
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1300</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1187,7 +1199,7 @@
         <v>280</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1205,7 +1217,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1223,15 +1235,15 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1244,12 +1256,12 @@
         <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1264,20 +1276,20 @@
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <f>SUM(E3:E24)</f>
-        <v>2544</v>
+        <v>3844</v>
       </c>
       <c r="F25" s="2">
-        <v>4500</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1297,12 +1309,12 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="J28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1330,12 +1342,12 @@
         <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1348,12 +1360,12 @@
         <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1362,12 +1374,12 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E28:E32)</f>
@@ -1377,7 +1389,7 @@
     <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1392,7 +1404,7 @@
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1409,7 +1421,7 @@
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2">
         <f>SUM(E33:E36)</f>
@@ -1422,12 +1434,12 @@
     <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3">
         <f>$E$33</f>
@@ -1436,7 +1448,7 @@
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -1453,7 +1465,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1466,13 +1478,13 @@
         <v>125</v>
       </c>
       <c r="J44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1485,12 +1497,12 @@
     <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="3">
         <f>$E$33</f>
@@ -1499,7 +1511,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1512,13 +1524,13 @@
         <v>50</v>
       </c>
       <c r="J52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1531,12 +1543,12 @@
     <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="3">
         <f>$E$33</f>
@@ -1545,7 +1557,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1558,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="J61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1577,12 +1589,12 @@
     <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="3">
         <f>$E$33</f>
@@ -1591,7 +1603,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1604,13 +1616,13 @@
         <v>650</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1623,12 +1635,12 @@
     <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3">
         <f>$E$33</f>
@@ -1637,7 +1649,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1650,12 +1662,12 @@
         <v>960</v>
       </c>
       <c r="J78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1668,12 +1680,12 @@
     <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E85" s="3">
         <f>$E$33</f>
@@ -1682,7 +1694,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1695,12 +1707,12 @@
         <v>30</v>
       </c>
       <c r="J86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1746,89 +1758,89 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -1884,7 +1896,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1892,7 +1904,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1900,7 +1912,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1908,7 +1920,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1916,7 +1928,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1924,7 +1936,7 @@
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <f>SUM(C18:C29)</f>

--- a/growmat.xlsx
+++ b/growmat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>outputs</t>
   </si>
@@ -256,13 +256,25 @@
   </si>
   <si>
     <t>display 7"</t>
+  </si>
+  <si>
+    <t>battery 12V</t>
+  </si>
+  <si>
+    <t>power suplly + charger</t>
+  </si>
+  <si>
+    <t>http://www.t-led.cz/ups-zdroj-12v-35w-s-nabijenim</t>
+  </si>
+  <si>
+    <t>ups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -285,6 +297,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,13 +333,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -342,13 +362,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -397,13 +417,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>46459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -452,13 +472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -507,13 +527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -562,13 +582,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -952,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1018,7 +1038,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E25" si="0">C4*D4</f>
         <v>100</v>
       </c>
       <c r="J4" t="s">
@@ -1264,463 +1284,502 @@
         <v>70</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>250</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>399</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="2">
-        <f>SUM(E3:E24)</f>
-        <v>3844</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E28" s="2">
+        <f>SUM(E3:E27)</f>
+        <v>4293</v>
+      </c>
+      <c r="F28" s="2">
         <v>5900</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
         <v>30</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28:E31" si="1">C28*D28</f>
+      <c r="E31">
+        <f t="shared" ref="E31:E34" si="1">C31*D31</f>
         <v>30</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="J28" s="3" t="s">
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="J31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>20</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>60</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>10</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="2">
-        <f>SUM(E28:E32)</f>
+      <c r="E36" s="2">
+        <f>SUM(E31:E35)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
         <v>80</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35:E36" si="2">C35*D35</f>
+      <c r="E38">
+        <f t="shared" ref="E38:E39" si="2">C38*D38</f>
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>50</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="2">
-        <f>SUM(E33:E36)</f>
+      <c r="E42" s="2">
+        <f>SUM(E36:E39)</f>
         <v>270</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F42" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="3">
-        <f>$E$33</f>
+      <c r="E45" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D46" s="3">
         <v>80</v>
       </c>
-      <c r="E43">
-        <f t="shared" ref="E43:E44" si="3">C43*D43</f>
+      <c r="E46">
+        <f t="shared" ref="E46:E47" si="3">C46*D46</f>
         <v>0</v>
       </c>
-      <c r="F43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>125</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <f>SUM(E42:E44)</f>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <f>SUM(E45:E47)</f>
         <v>265</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="3">
-        <f>$E$33</f>
+      <c r="E54" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>50</v>
       </c>
-      <c r="E52">
-        <f t="shared" ref="E52" si="4">C52*D52</f>
+      <c r="E55">
+        <f t="shared" ref="E55" si="4">C55*D55</f>
         <v>50</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <f>SUM(E51:E53)</f>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <f>SUM(E54:E56)</f>
         <v>190</v>
       </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
+    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="3">
-        <f>$E$33</f>
+      <c r="E63" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
         <v>30</v>
       </c>
-      <c r="E61">
-        <f t="shared" ref="E61" si="5">C61*D61</f>
+      <c r="E64">
+        <f t="shared" ref="E64" si="5">C64*D64</f>
         <v>30</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
-        <f>SUM(E60:E62)</f>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <f>SUM(E63:E65)</f>
         <v>170</v>
       </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
+    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="3">
-        <f>$E$33</f>
+      <c r="E72" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>40</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
         <v>650</v>
       </c>
-      <c r="E70">
-        <f t="shared" ref="E70" si="6">C70*D70</f>
+      <c r="E73">
+        <f t="shared" ref="E73" si="6">C73*D73</f>
         <v>650</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
-        <f>SUM(E68:E70)</f>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <f>SUM(E71:E73)</f>
         <v>790</v>
       </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
+    <row r="80" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="3">
-        <f>$E$33</f>
+      <c r="E80" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>73</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
         <v>960</v>
       </c>
-      <c r="E78">
-        <f t="shared" ref="E78" si="7">C78*D78</f>
+      <c r="E81">
+        <f t="shared" ref="E81" si="7">C81*D81</f>
         <v>960</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
-        <f>SUM(E76:E78)</f>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <f>SUM(E79:E81)</f>
         <v>1100</v>
       </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+    <row r="88" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="3">
-        <f>$E$33</f>
+      <c r="E88" s="3">
+        <f>$E$36</f>
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>77</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>30</v>
       </c>
-      <c r="E86">
-        <f t="shared" ref="E86" si="8">C86*D86</f>
+      <c r="E89">
+        <f t="shared" ref="E89" si="8">C89*D89</f>
         <v>30</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
-        <f>SUM(E84:E86)</f>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <f>SUM(E87:E89)</f>
         <v>170</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F93" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/growmat.xlsx
+++ b/growmat.xlsx
@@ -11,12 +11,12 @@
     <sheet name="io" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>outputs</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>ups</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/CH340-USB-to-RS485-485-Converter-Adapter-Module-For-Win7-Linux-XP-Vista-/201258967189?hash=item2edbf82095:g:SDAAAOSw2s1UrPYd</t>
+  </si>
+  <si>
+    <t>usb-rs485</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/191586231267?_trksid=p2057872.m2749.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/281783236684?_trksid=p2057872.m2749.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
+  </si>
+  <si>
+    <t>12V to 5V converter</t>
   </si>
 </sst>
 </file>
@@ -362,13 +377,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -417,13 +432,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>46459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -472,13 +487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -527,13 +542,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -582,13 +597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -618,6 +633,116 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="150Mbps-High-Speed-USB-Wireless-Wifi-802-11n-LAN-Adapter-Dongle-for-Raspberry-Pi"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1943100"/>
+          <a:ext cx="771525" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="http://i.ebayimg.com/images/g/WUsAAOSwYIhWj9nB/s-l1600.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="1114424"/>
+          <a:ext cx="942975" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -972,16 +1097,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
@@ -1038,7 +1163,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E25" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E26" si="0">C4*D4</f>
         <v>100</v>
       </c>
       <c r="J4" t="s">
@@ -1149,7 +1274,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1161,8 +1286,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J12" t="s">
-        <v>61</v>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1178,6 +1303,9 @@
       <c r="E13">
         <f t="shared" si="0"/>
         <v>1300</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1294,500 +1422,520 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>399</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>300</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="2">
-        <f>SUM(E3:E27)</f>
-        <v>4293</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E29" s="2">
+        <f>SUM(E3:E28)</f>
+        <v>4364</v>
+      </c>
+      <c r="F29" s="2">
         <v>5900</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
         <v>30</v>
       </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E34" si="1">C31*D31</f>
+      <c r="E32">
+        <f t="shared" ref="E32:E35" si="1">C32*D32</f>
         <v>30</v>
       </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="J31" s="3" t="s">
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="J32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>20</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>60</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>20</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>10</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="2">
-        <f>SUM(E31:E35)</f>
+      <c r="E37" s="2">
+        <f>SUM(E32:E36)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
         <v>80</v>
       </c>
-      <c r="E38">
-        <f t="shared" ref="E38:E39" si="2">C38*D38</f>
+      <c r="E39">
+        <f t="shared" ref="E39:E40" si="2">C39*D39</f>
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="2">
-        <f>SUM(E36:E39)</f>
+      <c r="E43" s="2">
+        <f>SUM(E37:E40)</f>
         <v>270</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="3">
-        <f>$E$36</f>
+      <c r="E46" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C47" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>80</v>
       </c>
-      <c r="E46">
-        <f t="shared" ref="E46:E47" si="3">C46*D46</f>
+      <c r="E47">
+        <f t="shared" ref="E47:E48" si="3">C47*D47</f>
         <v>0</v>
       </c>
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
         <v>125</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
-        <f>SUM(E45:E47)</f>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <f>SUM(E46:E48)</f>
         <v>265</v>
       </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+    <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="3">
-        <f>$E$36</f>
+      <c r="E55" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
         <v>50</v>
       </c>
-      <c r="E55">
-        <f t="shared" ref="E55" si="4">C55*D55</f>
+      <c r="E56">
+        <f t="shared" ref="E56" si="4">C56*D56</f>
         <v>50</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
-        <f>SUM(E54:E56)</f>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <f>SUM(E55:E57)</f>
         <v>190</v>
       </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="3">
-        <f>$E$36</f>
+      <c r="E64" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>30</v>
       </c>
-      <c r="E64">
-        <f t="shared" ref="E64" si="5">C64*D64</f>
+      <c r="E65">
+        <f t="shared" ref="E65" si="5">C65*D65</f>
         <v>30</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J65" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+    <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2">
-        <f>SUM(E63:E65)</f>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <f>SUM(E64:E66)</f>
         <v>170</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
+    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="3">
-        <f>$E$36</f>
+      <c r="E73" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>40</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
         <v>650</v>
       </c>
-      <c r="E73">
-        <f t="shared" ref="E73" si="6">C73*D73</f>
+      <c r="E74">
+        <f t="shared" ref="E74" si="6">C74*D74</f>
         <v>650</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2">
-        <f>SUM(E71:E73)</f>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2">
+        <f>SUM(E72:E74)</f>
         <v>790</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="3" t="s">
+    <row r="81" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="3">
-        <f>$E$36</f>
+      <c r="E81" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>960</v>
       </c>
-      <c r="E81">
-        <f t="shared" ref="E81" si="7">C81*D81</f>
+      <c r="E82">
+        <f t="shared" ref="E82" si="7">C82*D82</f>
         <v>960</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J82" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
-        <f>SUM(E79:E81)</f>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <f>SUM(E80:E82)</f>
         <v>1100</v>
       </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
+    <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="3">
-        <f>$E$36</f>
+      <c r="E89" s="3">
+        <f>$E$37</f>
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>77</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
         <v>30</v>
       </c>
-      <c r="E89">
-        <f t="shared" ref="E89" si="8">C89*D89</f>
+      <c r="E90">
+        <f t="shared" ref="E90" si="8">C90*D90</f>
         <v>30</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J90" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
-        <f>SUM(E87:E89)</f>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <f>SUM(E88:E90)</f>
         <v>170</v>
       </c>
-      <c r="F93" s="2"/>
+      <c r="F94" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J20" r:id="rId1" location="15136"/>
+    <hyperlink ref="J13" r:id="rId2"/>
+    <hyperlink ref="J12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
